--- a/excels/tbl_gula_pallet.xlsx
+++ b/excels/tbl_gula_pallet.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyaifulislam/apaaja/new-node/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA1AD7-A8DD-624A-8D26-2B65754A49DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_gula_pallet" sheetId="1" r:id="rId2"/>
+    <sheet name="tbl_gula_pallet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1122,11 +1129,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1148,27 +1155,344 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F367"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1188,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1208,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1228,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1248,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1268,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1288,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1308,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1328,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1348,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1368,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1388,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1408,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1428,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1448,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1468,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1488,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1508,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -1528,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -1548,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1568,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -1588,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -1608,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1007</v>
       </c>
@@ -1628,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1008</v>
       </c>
@@ -1648,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1009</v>
       </c>
@@ -1668,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1010</v>
       </c>
@@ -1688,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1011</v>
       </c>
@@ -1708,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1012</v>
       </c>
@@ -1728,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -1748,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -1768,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -1788,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -1808,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1017</v>
       </c>
@@ -1828,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1018</v>
       </c>
@@ -1848,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1019</v>
       </c>
@@ -1868,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1020</v>
       </c>
@@ -1888,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1021</v>
       </c>
@@ -1908,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1022</v>
       </c>
@@ -1928,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1023</v>
       </c>
@@ -1948,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1024</v>
       </c>
@@ -1968,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1025</v>
       </c>
@@ -1988,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1026</v>
       </c>
@@ -2008,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1027</v>
       </c>
@@ -2028,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1028</v>
       </c>
@@ -2048,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1029</v>
       </c>
@@ -2068,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1030</v>
       </c>
@@ -2088,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1031</v>
       </c>
@@ -2108,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1032</v>
       </c>
@@ -2128,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1033</v>
       </c>
@@ -2148,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1034</v>
       </c>
@@ -2168,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1035</v>
       </c>
@@ -2188,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1036</v>
       </c>
@@ -2208,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1037</v>
       </c>
@@ -2228,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1038</v>
       </c>
@@ -2248,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1039</v>
       </c>
@@ -2268,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1040</v>
       </c>
@@ -2288,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1041</v>
       </c>
@@ -2308,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1042</v>
       </c>
@@ -2328,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1043</v>
       </c>
@@ -2348,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1044</v>
       </c>
@@ -2368,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1045</v>
       </c>
@@ -2388,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -2408,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -2428,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1048</v>
       </c>
@@ -2448,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1049</v>
       </c>
@@ -2468,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1050</v>
       </c>
@@ -2488,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1051</v>
       </c>
@@ -2508,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1052</v>
       </c>
@@ -2528,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1053</v>
       </c>
@@ -2548,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1054</v>
       </c>
@@ -2568,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1055</v>
       </c>
@@ -2588,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1056</v>
       </c>
@@ -2608,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1057</v>
       </c>
@@ -2628,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1058</v>
       </c>
@@ -2648,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1059</v>
       </c>
@@ -2668,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1060</v>
       </c>
@@ -2688,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1061</v>
       </c>
@@ -2708,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1062</v>
       </c>
@@ -2728,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1063</v>
       </c>
@@ -2748,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1064</v>
       </c>
@@ -2768,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1065</v>
       </c>
@@ -2788,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1066</v>
       </c>
@@ -2808,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1067</v>
       </c>
@@ -2828,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1068</v>
       </c>
@@ -2848,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1069</v>
       </c>
@@ -2868,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1070</v>
       </c>
@@ -2888,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1071</v>
       </c>
@@ -2908,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1072</v>
       </c>
@@ -2928,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1073</v>
       </c>
@@ -2948,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1074</v>
       </c>
@@ -2968,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1075</v>
       </c>
@@ -2988,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1076</v>
       </c>
@@ -3008,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1077</v>
       </c>
@@ -3028,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1078</v>
       </c>
@@ -3048,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1079</v>
       </c>
@@ -3068,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1080</v>
       </c>
@@ -3088,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1081</v>
       </c>
@@ -3108,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1082</v>
       </c>
@@ -3128,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1083</v>
       </c>
@@ -3148,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1084</v>
       </c>
@@ -3168,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1085</v>
       </c>
@@ -3188,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1086</v>
       </c>
@@ -3208,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1087</v>
       </c>
@@ -3228,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1088</v>
       </c>
@@ -3248,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1089</v>
       </c>
@@ -3268,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1090</v>
       </c>
@@ -3288,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1091</v>
       </c>
@@ -3308,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1092</v>
       </c>
@@ -3328,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1093</v>
       </c>
@@ -3348,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1094</v>
       </c>
@@ -3368,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1095</v>
       </c>
@@ -3388,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1096</v>
       </c>
@@ -3408,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1097</v>
       </c>
@@ -3428,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1098</v>
       </c>
@@ -3448,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1099</v>
       </c>
@@ -3468,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1100</v>
       </c>
@@ -3488,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1101</v>
       </c>
@@ -3508,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1102</v>
       </c>
@@ -3528,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1103</v>
       </c>
@@ -3548,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1104</v>
       </c>
@@ -3568,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1105</v>
       </c>
@@ -3588,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1106</v>
       </c>
@@ -3608,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1107</v>
       </c>
@@ -3628,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1108</v>
       </c>
@@ -3648,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1109</v>
       </c>
@@ -3668,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1110</v>
       </c>
@@ -3688,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1111</v>
       </c>
@@ -3708,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1112</v>
       </c>
@@ -3728,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1113</v>
       </c>
@@ -3748,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1114</v>
       </c>
@@ -3768,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1115</v>
       </c>
@@ -3788,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1116</v>
       </c>
@@ -3808,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1117</v>
       </c>
@@ -3828,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1118</v>
       </c>
@@ -3848,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1119</v>
       </c>
@@ -3868,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1120</v>
       </c>
@@ -3888,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1121</v>
       </c>
@@ -3908,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1122</v>
       </c>
@@ -3928,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1123</v>
       </c>
@@ -3948,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1124</v>
       </c>
@@ -3968,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1125</v>
       </c>
@@ -3988,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1126</v>
       </c>
@@ -4008,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1127</v>
       </c>
@@ -4028,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1128</v>
       </c>
@@ -4048,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1129</v>
       </c>
@@ -4068,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1130</v>
       </c>
@@ -4088,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1131</v>
       </c>
@@ -4108,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1132</v>
       </c>
@@ -4128,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1133</v>
       </c>
@@ -4148,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1134</v>
       </c>
@@ -4168,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1135</v>
       </c>
@@ -4188,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1136</v>
       </c>
@@ -4208,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1137</v>
       </c>
@@ -4228,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1138</v>
       </c>
@@ -4248,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1139</v>
       </c>
@@ -4268,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1140</v>
       </c>
@@ -4288,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1141</v>
       </c>
@@ -4308,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1142</v>
       </c>
@@ -4328,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1143</v>
       </c>
@@ -4348,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1144</v>
       </c>
@@ -4368,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1145</v>
       </c>
@@ -4388,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1146</v>
       </c>
@@ -4408,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1147</v>
       </c>
@@ -4428,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1148</v>
       </c>
@@ -4448,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1149</v>
       </c>
@@ -4468,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1150</v>
       </c>
@@ -4488,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1151</v>
       </c>
@@ -4508,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1152</v>
       </c>
@@ -4528,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1153</v>
       </c>
@@ -4548,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1154</v>
       </c>
@@ -4568,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1155</v>
       </c>
@@ -4588,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1156</v>
       </c>
@@ -4608,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1157</v>
       </c>
@@ -4628,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1158</v>
       </c>
@@ -4648,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -4668,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1160</v>
       </c>
@@ -4688,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1161</v>
       </c>
@@ -4708,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1162</v>
       </c>
@@ -4728,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1163</v>
       </c>
@@ -4748,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1164</v>
       </c>
@@ -4768,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1165</v>
       </c>
@@ -4788,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1166</v>
       </c>
@@ -4808,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1167</v>
       </c>
@@ -4828,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1168</v>
       </c>
@@ -4848,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1169</v>
       </c>
@@ -4868,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1170</v>
       </c>
@@ -4888,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1171</v>
       </c>
@@ -4908,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1172</v>
       </c>
@@ -4928,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1173</v>
       </c>
@@ -4948,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1174</v>
       </c>
@@ -4968,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1175</v>
       </c>
@@ -4988,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1176</v>
       </c>
@@ -5008,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1177</v>
       </c>
@@ -5028,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1178</v>
       </c>
@@ -5048,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1179</v>
       </c>
@@ -5068,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1180</v>
       </c>
@@ -5088,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1181</v>
       </c>
@@ -5108,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1182</v>
       </c>
@@ -5128,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1183</v>
       </c>
@@ -5148,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1184</v>
       </c>
@@ -5168,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1185</v>
       </c>
@@ -5188,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1186</v>
       </c>
@@ -5208,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1187</v>
       </c>
@@ -5228,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1188</v>
       </c>
@@ -5248,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1189</v>
       </c>
@@ -5268,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1190</v>
       </c>
@@ -5288,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1191</v>
       </c>
@@ -5308,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1192</v>
       </c>
@@ -5328,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1193</v>
       </c>
@@ -5348,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1194</v>
       </c>
@@ -5368,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1195</v>
       </c>
@@ -5388,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1196</v>
       </c>
@@ -5408,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1197</v>
       </c>
@@ -5428,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1198</v>
       </c>
@@ -5448,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1199</v>
       </c>
@@ -5468,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1200</v>
       </c>
@@ -5488,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1201</v>
       </c>
@@ -5508,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1202</v>
       </c>
@@ -5528,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1203</v>
       </c>
@@ -5548,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1204</v>
       </c>
@@ -5568,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1205</v>
       </c>
@@ -5588,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1206</v>
       </c>
@@ -5608,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1207</v>
       </c>
@@ -5628,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1208</v>
       </c>
@@ -5648,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1209</v>
       </c>
@@ -5668,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1210</v>
       </c>
@@ -5688,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1211</v>
       </c>
@@ -5708,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1212</v>
       </c>
@@ -5728,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1213</v>
       </c>
@@ -5748,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1214</v>
       </c>
@@ -5768,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1215</v>
       </c>
@@ -5788,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1216</v>
       </c>
@@ -5808,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1217</v>
       </c>
@@ -5828,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1218</v>
       </c>
@@ -5848,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1219</v>
       </c>
@@ -5868,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1220</v>
       </c>
@@ -5888,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1221</v>
       </c>
@@ -5908,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1222</v>
       </c>
@@ -5928,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1223</v>
       </c>
@@ -5948,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1224</v>
       </c>
@@ -5968,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1225</v>
       </c>
@@ -5988,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1226</v>
       </c>
@@ -6008,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1227</v>
       </c>
@@ -6028,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1228</v>
       </c>
@@ -6048,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1229</v>
       </c>
@@ -6068,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1230</v>
       </c>
@@ -6088,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1231</v>
       </c>
@@ -6108,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1232</v>
       </c>
@@ -6128,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1233</v>
       </c>
@@ -6148,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1234</v>
       </c>
@@ -6168,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1235</v>
       </c>
@@ -6188,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1236</v>
       </c>
@@ -6208,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1237</v>
       </c>
@@ -6228,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1238</v>
       </c>
@@ -6248,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1239</v>
       </c>
@@ -6268,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1240</v>
       </c>
@@ -6288,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1241</v>
       </c>
@@ -6308,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1242</v>
       </c>
@@ -6328,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1243</v>
       </c>
@@ -6348,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1244</v>
       </c>
@@ -6368,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1245</v>
       </c>
@@ -6388,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1246</v>
       </c>
@@ -6408,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1247</v>
       </c>
@@ -6428,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1248</v>
       </c>
@@ -6448,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1249</v>
       </c>
@@ -6468,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1250</v>
       </c>
@@ -6488,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1251</v>
       </c>
@@ -6508,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1252</v>
       </c>
@@ -6528,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1253</v>
       </c>
@@ -6548,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1254</v>
       </c>
@@ -6568,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1255</v>
       </c>
@@ -6588,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1256</v>
       </c>
@@ -6608,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1257</v>
       </c>
@@ -6628,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1258</v>
       </c>
@@ -6648,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1259</v>
       </c>
@@ -6668,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1260</v>
       </c>
@@ -6688,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1261</v>
       </c>
@@ -6708,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1262</v>
       </c>
@@ -6728,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1263</v>
       </c>
@@ -6748,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1264</v>
       </c>
@@ -6768,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1265</v>
       </c>
@@ -6788,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1266</v>
       </c>
@@ -6808,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1267</v>
       </c>
@@ -6828,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1268</v>
       </c>
@@ -6848,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1269</v>
       </c>
@@ -6868,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1270</v>
       </c>
@@ -6888,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1271</v>
       </c>
@@ -6908,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1272</v>
       </c>
@@ -6928,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1273</v>
       </c>
@@ -6948,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1274</v>
       </c>
@@ -6968,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1275</v>
       </c>
@@ -6988,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1276</v>
       </c>
@@ -7008,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1277</v>
       </c>
@@ -7028,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1278</v>
       </c>
@@ -7048,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1279</v>
       </c>
@@ -7068,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1280</v>
       </c>
@@ -7088,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1281</v>
       </c>
@@ -7108,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1282</v>
       </c>
@@ -7128,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1283</v>
       </c>
@@ -7148,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1284</v>
       </c>
@@ -7168,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1285</v>
       </c>
@@ -7188,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1286</v>
       </c>
@@ -7208,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1287</v>
       </c>
@@ -7228,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1288</v>
       </c>
@@ -7248,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1289</v>
       </c>
@@ -7268,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1290</v>
       </c>
@@ -7288,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1291</v>
       </c>
@@ -7308,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1292</v>
       </c>
@@ -7328,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1293</v>
       </c>
@@ -7348,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1294</v>
       </c>
@@ -7368,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1295</v>
       </c>
@@ -7388,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1296</v>
       </c>
@@ -7408,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1297</v>
       </c>
@@ -7428,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1298</v>
       </c>
@@ -7448,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1299</v>
       </c>
@@ -7468,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1300</v>
       </c>
@@ -7488,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1301</v>
       </c>
@@ -7508,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1302</v>
       </c>
@@ -7528,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1303</v>
       </c>
@@ -7548,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1304</v>
       </c>
@@ -7568,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1305</v>
       </c>
@@ -7588,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1306</v>
       </c>
@@ -7608,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1307</v>
       </c>
@@ -7628,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1308</v>
       </c>
@@ -7648,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1309</v>
       </c>
@@ -7668,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1310</v>
       </c>
@@ -7688,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1311</v>
       </c>
@@ -7708,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1312</v>
       </c>
@@ -7728,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1313</v>
       </c>
@@ -7748,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1314</v>
       </c>
@@ -7768,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1315</v>
       </c>
@@ -7788,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1316</v>
       </c>
@@ -7808,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1317</v>
       </c>
@@ -7828,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1318</v>
       </c>
@@ -7848,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1319</v>
       </c>
@@ -7868,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1320</v>
       </c>
@@ -7888,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1321</v>
       </c>
@@ -7908,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1322</v>
       </c>
@@ -7928,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1323</v>
       </c>
@@ -7948,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1324</v>
       </c>
@@ -7968,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1325</v>
       </c>
@@ -7988,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1326</v>
       </c>
@@ -8008,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1327</v>
       </c>
@@ -8028,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1328</v>
       </c>
@@ -8048,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1329</v>
       </c>
@@ -8068,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1330</v>
       </c>
@@ -8088,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1331</v>
       </c>
@@ -8108,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1332</v>
       </c>
@@ -8128,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1333</v>
       </c>
@@ -8148,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1334</v>
       </c>
@@ -8168,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1335</v>
       </c>
@@ -8188,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1336</v>
       </c>
@@ -8208,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1337</v>
       </c>
@@ -8228,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1338</v>
       </c>
@@ -8248,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1339</v>
       </c>
@@ -8268,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1340</v>
       </c>
@@ -8288,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1341</v>
       </c>
@@ -8308,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1342</v>
       </c>
@@ -8328,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1343</v>
       </c>
@@ -8348,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1344</v>
       </c>
@@ -8368,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1345</v>
       </c>
@@ -8388,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1346</v>
       </c>
@@ -8408,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1347</v>
       </c>
@@ -8428,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1348</v>
       </c>
@@ -8448,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1349</v>
       </c>
@@ -8468,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1350</v>
       </c>
@@ -8488,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1351</v>
       </c>
@@ -8509,5 +8833,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/tbl_gula_pallet.xlsx
+++ b/excels/tbl_gula_pallet.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyaifulislam/apaaja/new-node/excels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA1AD7-A8DD-624A-8D26-2B65754A49DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_gula_pallet" sheetId="1" r:id="rId1"/>
+    <sheet name="tbl_gula_pallet" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -1129,11 +1122,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1155,344 +1148,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F367"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1512,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1532,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1552,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1572,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1592,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1612,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1632,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1652,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1672,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1692,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1712,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1732,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1752,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1772,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1792,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1812,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1832,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -1852,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -1872,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1892,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -1912,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -1932,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23">
         <v>1007</v>
       </c>
@@ -1952,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24">
         <v>1008</v>
       </c>
@@ -1972,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25">
         <v>1009</v>
       </c>
@@ -1992,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26">
         <v>1010</v>
       </c>
@@ -2012,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27">
         <v>1011</v>
       </c>
@@ -2032,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28">
         <v>1012</v>
       </c>
@@ -2052,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2072,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2092,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2112,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2132,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33">
         <v>1017</v>
       </c>
@@ -2152,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34">
         <v>1018</v>
       </c>
@@ -2172,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35">
         <v>1019</v>
       </c>
@@ -2192,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36">
         <v>1020</v>
       </c>
@@ -2212,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37">
         <v>1021</v>
       </c>
@@ -2232,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38">
         <v>1022</v>
       </c>
@@ -2252,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39">
         <v>1023</v>
       </c>
@@ -2272,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40">
         <v>1024</v>
       </c>
@@ -2292,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41">
         <v>1025</v>
       </c>
@@ -2312,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42">
         <v>1026</v>
       </c>
@@ -2332,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43">
         <v>1027</v>
       </c>
@@ -2352,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44">
         <v>1028</v>
       </c>
@@ -2372,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45">
         <v>1029</v>
       </c>
@@ -2392,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46">
         <v>1030</v>
       </c>
@@ -2412,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47">
         <v>1031</v>
       </c>
@@ -2432,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48">
         <v>1032</v>
       </c>
@@ -2452,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49">
         <v>1033</v>
       </c>
@@ -2472,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50">
         <v>1034</v>
       </c>
@@ -2492,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51">
         <v>1035</v>
       </c>
@@ -2512,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52">
         <v>1036</v>
       </c>
@@ -2532,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53">
         <v>1037</v>
       </c>
@@ -2552,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54">
         <v>1038</v>
       </c>
@@ -2572,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55">
         <v>1039</v>
       </c>
@@ -2592,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56">
         <v>1040</v>
       </c>
@@ -2612,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57">
         <v>1041</v>
       </c>
@@ -2632,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58">
         <v>1042</v>
       </c>
@@ -2652,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59">
         <v>1043</v>
       </c>
@@ -2672,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60">
         <v>1044</v>
       </c>
@@ -2692,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61">
         <v>1045</v>
       </c>
@@ -2712,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -2732,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -2752,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64">
         <v>1048</v>
       </c>
@@ -2772,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65">
         <v>1049</v>
       </c>
@@ -2792,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66">
         <v>1050</v>
       </c>
@@ -2812,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67">
         <v>1051</v>
       </c>
@@ -2832,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68">
         <v>1052</v>
       </c>
@@ -2852,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69">
         <v>1053</v>
       </c>
@@ -2872,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70">
         <v>1054</v>
       </c>
@@ -2892,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71">
         <v>1055</v>
       </c>
@@ -2912,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72">
         <v>1056</v>
       </c>
@@ -2932,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73">
         <v>1057</v>
       </c>
@@ -2952,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74">
         <v>1058</v>
       </c>
@@ -2972,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75">
         <v>1059</v>
       </c>
@@ -2992,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76">
         <v>1060</v>
       </c>
@@ -3012,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77">
         <v>1061</v>
       </c>
@@ -3032,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78">
         <v>1062</v>
       </c>
@@ -3052,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79">
         <v>1063</v>
       </c>
@@ -3072,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80">
         <v>1064</v>
       </c>
@@ -3092,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81">
         <v>1065</v>
       </c>
@@ -3112,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82">
         <v>1066</v>
       </c>
@@ -3132,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83">
         <v>1067</v>
       </c>
@@ -3152,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84">
         <v>1068</v>
       </c>
@@ -3172,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85">
         <v>1069</v>
       </c>
@@ -3192,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86">
         <v>1070</v>
       </c>
@@ -3212,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87">
         <v>1071</v>
       </c>
@@ -3232,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88">
         <v>1072</v>
       </c>
@@ -3252,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89">
         <v>1073</v>
       </c>
@@ -3272,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90">
         <v>1074</v>
       </c>
@@ -3292,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91">
         <v>1075</v>
       </c>
@@ -3312,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92">
         <v>1076</v>
       </c>
@@ -3332,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93">
         <v>1077</v>
       </c>
@@ -3352,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94">
         <v>1078</v>
       </c>
@@ -3372,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95">
         <v>1079</v>
       </c>
@@ -3392,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96">
         <v>1080</v>
       </c>
@@ -3412,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97">
         <v>1081</v>
       </c>
@@ -3432,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98">
         <v>1082</v>
       </c>
@@ -3452,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99">
         <v>1083</v>
       </c>
@@ -3472,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100">
         <v>1084</v>
       </c>
@@ -3492,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101">
         <v>1085</v>
       </c>
@@ -3512,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102">
         <v>1086</v>
       </c>
@@ -3532,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103">
         <v>1087</v>
       </c>
@@ -3552,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104">
         <v>1088</v>
       </c>
@@ -3572,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105">
         <v>1089</v>
       </c>
@@ -3592,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106">
         <v>1090</v>
       </c>
@@ -3612,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107">
         <v>1091</v>
       </c>
@@ -3632,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108">
         <v>1092</v>
       </c>
@@ -3652,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109">
         <v>1093</v>
       </c>
@@ -3672,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110">
         <v>1094</v>
       </c>
@@ -3692,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111">
         <v>1095</v>
       </c>
@@ -3712,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112">
         <v>1096</v>
       </c>
@@ -3732,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113">
         <v>1097</v>
       </c>
@@ -3752,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114">
         <v>1098</v>
       </c>
@@ -3772,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115">
         <v>1099</v>
       </c>
@@ -3792,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116">
         <v>1100</v>
       </c>
@@ -3812,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117">
         <v>1101</v>
       </c>
@@ -3832,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118">
         <v>1102</v>
       </c>
@@ -3852,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119">
         <v>1103</v>
       </c>
@@ -3872,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120">
         <v>1104</v>
       </c>
@@ -3892,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121">
         <v>1105</v>
       </c>
@@ -3912,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122">
         <v>1106</v>
       </c>
@@ -3932,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123">
         <v>1107</v>
       </c>
@@ -3952,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124">
         <v>1108</v>
       </c>
@@ -3972,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125">
         <v>1109</v>
       </c>
@@ -3992,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126">
         <v>1110</v>
       </c>
@@ -4012,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127">
         <v>1111</v>
       </c>
@@ -4032,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128">
         <v>1112</v>
       </c>
@@ -4052,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129">
         <v>1113</v>
       </c>
@@ -4072,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130">
         <v>1114</v>
       </c>
@@ -4092,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131">
         <v>1115</v>
       </c>
@@ -4112,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132">
         <v>1116</v>
       </c>
@@ -4132,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133">
         <v>1117</v>
       </c>
@@ -4152,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134">
         <v>1118</v>
       </c>
@@ -4172,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135">
         <v>1119</v>
       </c>
@@ -4192,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136">
         <v>1120</v>
       </c>
@@ -4212,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137">
         <v>1121</v>
       </c>
@@ -4232,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138">
         <v>1122</v>
       </c>
@@ -4252,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139">
         <v>1123</v>
       </c>
@@ -4272,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140">
         <v>1124</v>
       </c>
@@ -4292,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141">
         <v>1125</v>
       </c>
@@ -4312,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142">
         <v>1126</v>
       </c>
@@ -4332,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143">
         <v>1127</v>
       </c>
@@ -4352,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144">
         <v>1128</v>
       </c>
@@ -4372,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145">
         <v>1129</v>
       </c>
@@ -4392,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146">
         <v>1130</v>
       </c>
@@ -4412,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147">
         <v>1131</v>
       </c>
@@ -4432,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148">
         <v>1132</v>
       </c>
@@ -4452,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149">
         <v>1133</v>
       </c>
@@ -4472,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150">
         <v>1134</v>
       </c>
@@ -4492,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151">
         <v>1135</v>
       </c>
@@ -4512,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152">
         <v>1136</v>
       </c>
@@ -4532,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153">
         <v>1137</v>
       </c>
@@ -4552,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154">
         <v>1138</v>
       </c>
@@ -4572,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155">
         <v>1139</v>
       </c>
@@ -4592,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156">
         <v>1140</v>
       </c>
@@ -4612,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157">
         <v>1141</v>
       </c>
@@ -4632,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158">
         <v>1142</v>
       </c>
@@ -4652,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159">
         <v>1143</v>
       </c>
@@ -4672,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160">
         <v>1144</v>
       </c>
@@ -4692,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161">
         <v>1145</v>
       </c>
@@ -4712,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162">
         <v>1146</v>
       </c>
@@ -4732,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163">
         <v>1147</v>
       </c>
@@ -4752,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164">
         <v>1148</v>
       </c>
@@ -4772,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165">
         <v>1149</v>
       </c>
@@ -4792,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166">
         <v>1150</v>
       </c>
@@ -4812,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167">
         <v>1151</v>
       </c>
@@ -4832,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168">
         <v>1152</v>
       </c>
@@ -4852,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169">
         <v>1153</v>
       </c>
@@ -4872,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170">
         <v>1154</v>
       </c>
@@ -4892,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171">
         <v>1155</v>
       </c>
@@ -4912,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172">
         <v>1156</v>
       </c>
@@ -4932,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173">
         <v>1157</v>
       </c>
@@ -4952,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174">
         <v>1158</v>
       </c>
@@ -4972,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175">
         <v>1159</v>
       </c>
@@ -4992,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176">
         <v>1160</v>
       </c>
@@ -5012,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177">
         <v>1161</v>
       </c>
@@ -5032,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178">
         <v>1162</v>
       </c>
@@ -5052,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179">
         <v>1163</v>
       </c>
@@ -5072,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180">
         <v>1164</v>
       </c>
@@ -5092,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181">
         <v>1165</v>
       </c>
@@ -5112,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182">
         <v>1166</v>
       </c>
@@ -5132,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183">
         <v>1167</v>
       </c>
@@ -5152,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="A184">
         <v>1168</v>
       </c>
@@ -5172,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185">
         <v>1169</v>
       </c>
@@ -5192,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186">
         <v>1170</v>
       </c>
@@ -5212,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187">
         <v>1171</v>
       </c>
@@ -5232,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188">
         <v>1172</v>
       </c>
@@ -5252,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189">
         <v>1173</v>
       </c>
@@ -5272,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="A190">
         <v>1174</v>
       </c>
@@ -5292,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="A191">
         <v>1175</v>
       </c>
@@ -5312,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="A192">
         <v>1176</v>
       </c>
@@ -5332,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="A193">
         <v>1177</v>
       </c>
@@ -5352,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="A194">
         <v>1178</v>
       </c>
@@ -5372,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="A195">
         <v>1179</v>
       </c>
@@ -5392,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="A196">
         <v>1180</v>
       </c>
@@ -5412,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="A197">
         <v>1181</v>
       </c>
@@ -5432,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="A198">
         <v>1182</v>
       </c>
@@ -5452,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="A199">
         <v>1183</v>
       </c>
@@ -5472,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="A200">
         <v>1184</v>
       </c>
@@ -5492,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="A201">
         <v>1185</v>
       </c>
@@ -5512,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="A202">
         <v>1186</v>
       </c>
@@ -5532,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="A203">
         <v>1187</v>
       </c>
@@ -5552,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="A204">
         <v>1188</v>
       </c>
@@ -5572,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="A205">
         <v>1189</v>
       </c>
@@ -5592,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206">
       <c r="A206">
         <v>1190</v>
       </c>
@@ -5612,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207">
       <c r="A207">
         <v>1191</v>
       </c>
@@ -5632,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208">
       <c r="A208">
         <v>1192</v>
       </c>
@@ -5652,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209">
       <c r="A209">
         <v>1193</v>
       </c>
@@ -5672,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210">
       <c r="A210">
         <v>1194</v>
       </c>
@@ -5692,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211">
       <c r="A211">
         <v>1195</v>
       </c>
@@ -5712,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212">
       <c r="A212">
         <v>1196</v>
       </c>
@@ -5732,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213">
       <c r="A213">
         <v>1197</v>
       </c>
@@ -5752,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214">
       <c r="A214">
         <v>1198</v>
       </c>
@@ -5772,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215">
       <c r="A215">
         <v>1199</v>
       </c>
@@ -5792,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216">
       <c r="A216">
         <v>1200</v>
       </c>
@@ -5812,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="A217">
         <v>1201</v>
       </c>
@@ -5832,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218">
       <c r="A218">
         <v>1202</v>
       </c>
@@ -5852,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219">
       <c r="A219">
         <v>1203</v>
       </c>
@@ -5872,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220">
       <c r="A220">
         <v>1204</v>
       </c>
@@ -5892,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221">
       <c r="A221">
         <v>1205</v>
       </c>
@@ -5912,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222">
       <c r="A222">
         <v>1206</v>
       </c>
@@ -5932,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223">
       <c r="A223">
         <v>1207</v>
       </c>
@@ -5952,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224">
       <c r="A224">
         <v>1208</v>
       </c>
@@ -5972,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225">
       <c r="A225">
         <v>1209</v>
       </c>
@@ -5992,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="A226">
         <v>1210</v>
       </c>
@@ -6012,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227">
       <c r="A227">
         <v>1211</v>
       </c>
@@ -6032,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228">
       <c r="A228">
         <v>1212</v>
       </c>
@@ -6052,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229">
       <c r="A229">
         <v>1213</v>
       </c>
@@ -6072,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230">
       <c r="A230">
         <v>1214</v>
       </c>
@@ -6092,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231">
       <c r="A231">
         <v>1215</v>
       </c>
@@ -6112,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232">
       <c r="A232">
         <v>1216</v>
       </c>
@@ -6132,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233">
       <c r="A233">
         <v>1217</v>
       </c>
@@ -6152,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234">
       <c r="A234">
         <v>1218</v>
       </c>
@@ -6172,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235">
       <c r="A235">
         <v>1219</v>
       </c>
@@ -6192,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="A236">
         <v>1220</v>
       </c>
@@ -6212,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="A237">
         <v>1221</v>
       </c>
@@ -6232,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="A238">
         <v>1222</v>
       </c>
@@ -6252,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="A239">
         <v>1223</v>
       </c>
@@ -6272,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240">
       <c r="A240">
         <v>1224</v>
       </c>
@@ -6292,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241">
       <c r="A241">
         <v>1225</v>
       </c>
@@ -6312,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242">
       <c r="A242">
         <v>1226</v>
       </c>
@@ -6332,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="A243">
         <v>1227</v>
       </c>
@@ -6352,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244">
       <c r="A244">
         <v>1228</v>
       </c>
@@ -6372,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245">
       <c r="A245">
         <v>1229</v>
       </c>
@@ -6392,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246">
       <c r="A246">
         <v>1230</v>
       </c>
@@ -6412,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247">
       <c r="A247">
         <v>1231</v>
       </c>
@@ -6432,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248">
       <c r="A248">
         <v>1232</v>
       </c>
@@ -6452,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249">
       <c r="A249">
         <v>1233</v>
       </c>
@@ -6472,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250">
       <c r="A250">
         <v>1234</v>
       </c>
@@ -6492,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251">
       <c r="A251">
         <v>1235</v>
       </c>
@@ -6512,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252">
       <c r="A252">
         <v>1236</v>
       </c>
@@ -6532,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253">
       <c r="A253">
         <v>1237</v>
       </c>
@@ -6552,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254">
       <c r="A254">
         <v>1238</v>
       </c>
@@ -6572,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255">
       <c r="A255">
         <v>1239</v>
       </c>
@@ -6592,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256">
       <c r="A256">
         <v>1240</v>
       </c>
@@ -6612,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257">
       <c r="A257">
         <v>1241</v>
       </c>
@@ -6632,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258">
       <c r="A258">
         <v>1242</v>
       </c>
@@ -6652,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259">
       <c r="A259">
         <v>1243</v>
       </c>
@@ -6672,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260">
       <c r="A260">
         <v>1244</v>
       </c>
@@ -6692,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261">
       <c r="A261">
         <v>1245</v>
       </c>
@@ -6712,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262">
       <c r="A262">
         <v>1246</v>
       </c>
@@ -6732,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263">
       <c r="A263">
         <v>1247</v>
       </c>
@@ -6752,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264">
       <c r="A264">
         <v>1248</v>
       </c>
@@ -6772,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265">
       <c r="A265">
         <v>1249</v>
       </c>
@@ -6792,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266">
       <c r="A266">
         <v>1250</v>
       </c>
@@ -6812,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267">
       <c r="A267">
         <v>1251</v>
       </c>
@@ -6832,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268">
       <c r="A268">
         <v>1252</v>
       </c>
@@ -6852,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269">
       <c r="A269">
         <v>1253</v>
       </c>
@@ -6872,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270">
       <c r="A270">
         <v>1254</v>
       </c>
@@ -6892,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271">
       <c r="A271">
         <v>1255</v>
       </c>
@@ -6912,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272">
       <c r="A272">
         <v>1256</v>
       </c>
@@ -6932,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273">
       <c r="A273">
         <v>1257</v>
       </c>
@@ -6952,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274">
       <c r="A274">
         <v>1258</v>
       </c>
@@ -6972,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275">
       <c r="A275">
         <v>1259</v>
       </c>
@@ -6992,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276">
       <c r="A276">
         <v>1260</v>
       </c>
@@ -7012,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277">
       <c r="A277">
         <v>1261</v>
       </c>
@@ -7032,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278">
       <c r="A278">
         <v>1262</v>
       </c>
@@ -7052,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279">
       <c r="A279">
         <v>1263</v>
       </c>
@@ -7072,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280">
       <c r="A280">
         <v>1264</v>
       </c>
@@ -7092,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281">
       <c r="A281">
         <v>1265</v>
       </c>
@@ -7112,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282">
       <c r="A282">
         <v>1266</v>
       </c>
@@ -7132,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283">
       <c r="A283">
         <v>1267</v>
       </c>
@@ -7152,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284">
       <c r="A284">
         <v>1268</v>
       </c>
@@ -7172,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285">
       <c r="A285">
         <v>1269</v>
       </c>
@@ -7192,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286">
       <c r="A286">
         <v>1270</v>
       </c>
@@ -7212,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287">
       <c r="A287">
         <v>1271</v>
       </c>
@@ -7232,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288">
       <c r="A288">
         <v>1272</v>
       </c>
@@ -7252,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289">
       <c r="A289">
         <v>1273</v>
       </c>
@@ -7272,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290">
       <c r="A290">
         <v>1274</v>
       </c>
@@ -7292,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291">
       <c r="A291">
         <v>1275</v>
       </c>
@@ -7312,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292">
       <c r="A292">
         <v>1276</v>
       </c>
@@ -7332,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293">
       <c r="A293">
         <v>1277</v>
       </c>
@@ -7352,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294">
       <c r="A294">
         <v>1278</v>
       </c>
@@ -7372,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295">
       <c r="A295">
         <v>1279</v>
       </c>
@@ -7392,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296">
       <c r="A296">
         <v>1280</v>
       </c>
@@ -7412,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297">
       <c r="A297">
         <v>1281</v>
       </c>
@@ -7432,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298">
       <c r="A298">
         <v>1282</v>
       </c>
@@ -7452,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299">
       <c r="A299">
         <v>1283</v>
       </c>
@@ -7472,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300">
       <c r="A300">
         <v>1284</v>
       </c>
@@ -7492,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301">
       <c r="A301">
         <v>1285</v>
       </c>
@@ -7512,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302">
       <c r="A302">
         <v>1286</v>
       </c>
@@ -7532,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303">
       <c r="A303">
         <v>1287</v>
       </c>
@@ -7552,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304">
       <c r="A304">
         <v>1288</v>
       </c>
@@ -7572,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305">
       <c r="A305">
         <v>1289</v>
       </c>
@@ -7592,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306">
       <c r="A306">
         <v>1290</v>
       </c>
@@ -7612,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307">
       <c r="A307">
         <v>1291</v>
       </c>
@@ -7632,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308">
       <c r="A308">
         <v>1292</v>
       </c>
@@ -7652,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309">
       <c r="A309">
         <v>1293</v>
       </c>
@@ -7672,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310">
       <c r="A310">
         <v>1294</v>
       </c>
@@ -7692,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311">
       <c r="A311">
         <v>1295</v>
       </c>
@@ -7712,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312">
       <c r="A312">
         <v>1296</v>
       </c>
@@ -7732,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313">
       <c r="A313">
         <v>1297</v>
       </c>
@@ -7752,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314">
       <c r="A314">
         <v>1298</v>
       </c>
@@ -7772,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315">
       <c r="A315">
         <v>1299</v>
       </c>
@@ -7792,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316">
       <c r="A316">
         <v>1300</v>
       </c>
@@ -7812,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317">
       <c r="A317">
         <v>1301</v>
       </c>
@@ -7832,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318">
       <c r="A318">
         <v>1302</v>
       </c>
@@ -7852,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319">
       <c r="A319">
         <v>1303</v>
       </c>
@@ -7872,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320">
       <c r="A320">
         <v>1304</v>
       </c>
@@ -7892,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321">
       <c r="A321">
         <v>1305</v>
       </c>
@@ -7912,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322">
       <c r="A322">
         <v>1306</v>
       </c>
@@ -7932,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323">
       <c r="A323">
         <v>1307</v>
       </c>
@@ -7952,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324">
       <c r="A324">
         <v>1308</v>
       </c>
@@ -7972,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325">
       <c r="A325">
         <v>1309</v>
       </c>
@@ -7992,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326">
       <c r="A326">
         <v>1310</v>
       </c>
@@ -8012,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327">
       <c r="A327">
         <v>1311</v>
       </c>
@@ -8032,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328">
       <c r="A328">
         <v>1312</v>
       </c>
@@ -8052,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329">
       <c r="A329">
         <v>1313</v>
       </c>
@@ -8072,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330">
       <c r="A330">
         <v>1314</v>
       </c>
@@ -8092,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331">
       <c r="A331">
         <v>1315</v>
       </c>
@@ -8112,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332">
       <c r="A332">
         <v>1316</v>
       </c>
@@ -8132,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333">
       <c r="A333">
         <v>1317</v>
       </c>
@@ -8152,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334">
       <c r="A334">
         <v>1318</v>
       </c>
@@ -8172,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335">
       <c r="A335">
         <v>1319</v>
       </c>
@@ -8192,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336">
       <c r="A336">
         <v>1320</v>
       </c>
@@ -8212,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337">
       <c r="A337">
         <v>1321</v>
       </c>
@@ -8232,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338">
       <c r="A338">
         <v>1322</v>
       </c>
@@ -8252,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339">
       <c r="A339">
         <v>1323</v>
       </c>
@@ -8272,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340">
       <c r="A340">
         <v>1324</v>
       </c>
@@ -8292,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341">
       <c r="A341">
         <v>1325</v>
       </c>
@@ -8312,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342">
       <c r="A342">
         <v>1326</v>
       </c>
@@ -8332,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343">
       <c r="A343">
         <v>1327</v>
       </c>
@@ -8352,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344">
       <c r="A344">
         <v>1328</v>
       </c>
@@ -8372,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345">
       <c r="A345">
         <v>1329</v>
       </c>
@@ -8392,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346">
       <c r="A346">
         <v>1330</v>
       </c>
@@ -8412,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347">
       <c r="A347">
         <v>1331</v>
       </c>
@@ -8432,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348">
       <c r="A348">
         <v>1332</v>
       </c>
@@ -8452,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349">
       <c r="A349">
         <v>1333</v>
       </c>
@@ -8472,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350">
       <c r="A350">
         <v>1334</v>
       </c>
@@ -8492,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351">
       <c r="A351">
         <v>1335</v>
       </c>
@@ -8512,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352">
       <c r="A352">
         <v>1336</v>
       </c>
@@ -8532,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353">
       <c r="A353">
         <v>1337</v>
       </c>
@@ -8552,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354">
       <c r="A354">
         <v>1338</v>
       </c>
@@ -8572,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355">
       <c r="A355">
         <v>1339</v>
       </c>
@@ -8592,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356">
       <c r="A356">
         <v>1340</v>
       </c>
@@ -8612,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357">
       <c r="A357">
         <v>1341</v>
       </c>
@@ -8632,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358">
       <c r="A358">
         <v>1342</v>
       </c>
@@ -8652,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359">
       <c r="A359">
         <v>1343</v>
       </c>
@@ -8672,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360">
       <c r="A360">
         <v>1344</v>
       </c>
@@ -8692,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361">
       <c r="A361">
         <v>1345</v>
       </c>
@@ -8712,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362">
       <c r="A362">
         <v>1346</v>
       </c>
@@ -8732,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363">
       <c r="A363">
         <v>1347</v>
       </c>
@@ -8752,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364">
       <c r="A364">
         <v>1348</v>
       </c>
@@ -8772,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365">
       <c r="A365">
         <v>1349</v>
       </c>
@@ -8792,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366">
       <c r="A366">
         <v>1350</v>
       </c>
@@ -8812,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367">
       <c r="A367">
         <v>1351</v>
       </c>
@@ -8833,6 +8509,5 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>